--- a/data/trans_camb/P25A_3_R2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25A_3_R2-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>2,09</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1,97</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 0,54</t>
+          <t>-2,92; 1,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 1,19</t>
+          <t>-3,36; 1,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 2,18</t>
+          <t>-1,2; 5,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 2,1</t>
+          <t>0,0; 3,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 0,92</t>
+          <t>0,0; 4,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 1,25</t>
+          <t>0,0; 6,45</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-0,88; 1,44</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-0,81; 1,91</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0,15; 4,4</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-47,67%</t>
+          <t>-22,71%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-10,65%</t>
+          <t>-49,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>232,94%</t>
+          <t>148,08%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>302,66%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>62,84%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>33,7%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>68,3%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>355,08%</t>
         </is>
       </c>
     </row>
@@ -725,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -735,12 +811,27 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-81,94; 462,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-64,07; 577,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-68,3; —</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>-0,51</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>-0,17</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-0,19</t>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,18</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 0,63</t>
+          <t>-4,31; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 0,3</t>
+          <t>-3,68; 0,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,56</t>
+          <t>-1,31; 5,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 1,57</t>
+          <t>-0,52; 4,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 0,72</t>
+          <t>-3,33; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 0,75</t>
+          <t>-0,55; 4,24</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-1,44; 1,28</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-1,97; 0,27</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-0,49; 3,26</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-56,65%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-64,03%</t>
+          <t>-57,85%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>108,24%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>174,99%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-24,01%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-25,96%</t>
+          <t>170,12%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-18,6%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-68,93%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>132,12%</t>
         </is>
       </c>
     </row>
@@ -899,6 +1035,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-80,42; 1116,16</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -918,27 +1069,42 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -956,27 +1122,42 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 4,52</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -994,27 +1175,42 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>60,69%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1055,6 +1251,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1,44</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 0,27</t>
+          <t>-2,27; 0,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 1,01</t>
+          <t>-2,1; 0,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 1,06</t>
+          <t>-0,39; 3,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 1,21</t>
+          <t>-0,17; 2,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 0,46</t>
+          <t>-0,21; 2,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 0,81</t>
+          <t>0,23; 4,06</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-0,69; 0,97</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-0,79; 0,79</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0,22; 2,87</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-51,52%</t>
+          <t>-60,17%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>-53,3%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>32,71%</t>
+          <t>129,16%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>51,36%</t>
+          <t>305,79%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-14,57%</t>
+          <t>192,19%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>23,16%</t>
+          <t>664,3%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4,07%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-10,11%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>227,62%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 213,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-79,97; 461,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-80,93; 576,13</t>
+          <t>-45,62; 1129,37</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-66,94; 711,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-77,0; 140,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-52,25; 222,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-80,07; 512,57</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-84,87; 423,77</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 1154,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
